--- a/Training/1118387-2019-Elliot.xlsx
+++ b/Training/1118387-2019-Elliot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\SoftwareProjects\espn-fantasy-football\Training2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glase\SoftwareProjects\espn-fantasy-football\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CEB220-BC73-440A-86EF-2F59854336A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7CA17A-015A-4E32-9DDA-83D59D3C6414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Draft+Results" sheetId="1" r:id="rId1"/>
@@ -1571,13 +1571,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="E136" sqref="E136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -1650,7 +1650,7 @@
         <v>19.085000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>29.824999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>17.742999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>19.481000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>10.885</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>14.627000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>23.413</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>17.725000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>14.333</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>18.033000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>12.706</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>24.856999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>18.407</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>15.067</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>15.894</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>15.858000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>16.344000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>14.087</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>14.55</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>18.207999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>16.074999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>21.029</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>17.427</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>20.306999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>16.137</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>14.372999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>16.036000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>16.167000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>17.244</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>14.54</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>13.925000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>11.44</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>12.51</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>15.656000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>10.625</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>8.3930000000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>15.526999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>14.114000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>12.22</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>14.738</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>17.155999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>13.093</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>13.347</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>15.507</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>25.033000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>19.925000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>12.106999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>19.864000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>13.191000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>21.056000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3505,7 +3505,7 @@
         <v>15.443</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>13.930999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>21.472999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>5.9930000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>14</v>
       </c>
       <c r="E61" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>144</v>
@@ -3715,7 +3715,7 @@
         <v>12.516999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>25.417999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>12.356</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>19.524999999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>10.753</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>9.5370000000000008</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>3.7749999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>10.65</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>15.632999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>11.48</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>14.18</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>10.036</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>10.244</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>20.780999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>24.738</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>20.22</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>15.930999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>14.962999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>15.154</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>10.269</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>14.746</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>10.446999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>7.8639999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>9.6709999999999994</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>14.914999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>13.794</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>19.562000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>7.2809999999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>12.364000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>13.092000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>5.9640000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>3.1360000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>7.673</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>9.3119999999999994</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>8.8870000000000005</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>9.625</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>14</v>
       </c>
       <c r="E101" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F101" t="s">
         <v>258</v>
@@ -5115,7 +5115,7 @@
         <v>7.73</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>11.429</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>20.488</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>25</v>
       </c>
       <c r="E105" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F105" t="s">
         <v>269</v>
@@ -5255,7 +5255,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>1.7230000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>9.1229999999999993</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>7.3689999999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>9.375</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>9.8249999999999993</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>7.7859999999999996</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>15.193</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>11.14</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>9.875</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>9.4380000000000006</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>14.019</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>6.9880000000000004</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>11.087999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>10.731</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>5.867</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5885,7 +5885,7 @@
         <v>25.518999999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>5.1749999999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>4.1440000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>13.632999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>9.0329999999999995</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>4.7130000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>18.488</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>5.3810000000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>10.394</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>10.221</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>12.356</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>9.9380000000000006</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>9.5749999999999993</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>7.1059999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>21</v>
       </c>
       <c r="E144" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F144" t="s">
         <v>356</v>
@@ -6620,7 +6620,7 @@
         <v>8.2309999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>23.888000000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6725,7 +6725,7 @@
         <v>7.3079999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>7.9690000000000003</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>12.32</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>7.625</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>11.819000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>8.0619999999999994</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>14.382</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>5.0620000000000003</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>4.3170000000000002</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7215,16 +7215,16 @@
         <v>7.9379999999999997</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E165" s="1"/>
     </row>
   </sheetData>
